--- a/new-info15/web.xlsx
+++ b/new-info15/web.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="15270" windowHeight="8805"/>
+    <workbookView windowWidth="13200" windowHeight="5145"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>domain</t>
   </si>
@@ -40,67 +40,43 @@
     <t>color2</t>
   </si>
   <si>
-    <t>apricitys.fun</t>
+    <t>read.quey.site</t>
+  </si>
+  <si>
+    <t>#fafbe6</t>
+  </si>
+  <si>
+    <t>#a48ce6</t>
   </si>
   <si>
     <t>#f7ece7</t>
   </si>
   <si>
-    <t>#eba46f</t>
-  </si>
-  <si>
-    <t>halcyons.top</t>
+    <t>#a37070</t>
   </si>
   <si>
     <t>#e2e1dd</t>
   </si>
   <si>
-    <t>#c2849f</t>
-  </si>
-  <si>
-    <t>nescience.cloud</t>
-  </si>
-  <si>
-    <t>#fafbe6</t>
-  </si>
-  <si>
-    <t>#746097</t>
-  </si>
-  <si>
-    <t>#a37070</t>
-  </si>
-  <si>
-    <t>fleetings.cloud</t>
+    <t>#4167b1</t>
+  </si>
+  <si>
+    <t>#d62828</t>
   </si>
   <si>
     <t>#c6e6e8</t>
   </si>
   <si>
-    <t>#dc7067</t>
-  </si>
-  <si>
-    <t>#4167b1</t>
-  </si>
-  <si>
-    <t>oneirics.site</t>
+    <t>#e58889</t>
   </si>
   <si>
     <t>#e3e3e5</t>
   </si>
   <si>
-    <t>#f0cfe3</t>
-  </si>
-  <si>
-    <t>#d62828</t>
+    <t>#b57743</t>
   </si>
   <si>
     <t>#f5f4f7</t>
-  </si>
-  <si>
-    <t>#e58889</t>
-  </si>
-  <si>
-    <t>#b57743</t>
   </si>
   <si>
     <t>#a61b29</t>
@@ -116,7 +92,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -126,10 +102,11 @@
     </font>
     <font>
       <u/>
-      <sz val="10"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica"/>
+      <sz val="9"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -139,8 +116,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="10.5"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -153,6 +130,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Microsoft YaHei"/>
@@ -316,7 +300,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="50">
+  <fills count="46">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -325,13 +309,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFAFBE6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA48CE6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF7ECE7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFEBA46F"/>
+        <fgColor rgb="FFA37070"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -343,25 +339,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC2849F"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFAFBE6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF746097"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA37070"/>
+        <fgColor rgb="FF4167B1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD62828"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -373,13 +357,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFDC7067"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF4167B1"/>
+        <fgColor rgb="FFE58889"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -391,13 +369,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF0CFE3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD62828"/>
+        <fgColor rgb="FFB57743"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -410,18 +382,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA61B29"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE58889"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB57743"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -721,208 +681,206 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1308,10 +1266,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1342,103 +1300,84 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>8</v>
-      </c>
+      <c r="A3" s="4"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="6"/>
     </row>
     <row r="4" ht="16.5" spans="1:10">
-      <c r="A4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>12</v>
+      <c r="A4" s="4"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="6"/>
+      <c r="I4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="5" ht="16.5" spans="1:10">
-      <c r="A5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J5" s="12" t="s">
-        <v>16</v>
+      <c r="A5" s="4"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="6"/>
+      <c r="I5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="6" ht="16.5" spans="1:10">
-      <c r="A6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="I6" s="7" t="s">
+      <c r="A6" s="4"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="6"/>
+      <c r="I6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J6" s="11" t="s">
         <v>10</v>
-      </c>
-      <c r="J6" s="15" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="7" ht="16.5" spans="1:10">
-      <c r="B7" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="17"/>
-      <c r="I7" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7" s="18" t="s">
-        <v>22</v>
+      <c r="A7" s="12"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="13"/>
+      <c r="I7" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" s="15" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="B8" s="10"/>
-      <c r="I8" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J8" s="19" t="s">
-        <v>23</v>
+      <c r="A8" s="12"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="12"/>
+      <c r="I8" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="17" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="I9" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="J9" s="17" t="s">
-        <v>24</v>
-      </c>
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="I9" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="apricitys.fun"/>
-    <hyperlink ref="A3" r:id="rId2" display="halcyons.top"/>
-    <hyperlink ref="A4" r:id="rId3" display="nescience.cloud"/>
-    <hyperlink ref="A5" r:id="rId4" display="fleetings.cloud"/>
-    <hyperlink ref="A6" r:id="rId5" display="oneirics.site"/>
+    <hyperlink ref="A2" r:id="rId1" display="read.quey.site"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
